--- a/src/test/resources/schedule-tgs-after.xlsx
+++ b/src/test/resources/schedule-tgs-after.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t xml:space="preserve">GM#</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">FC Dallas NPL B06/05 Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field 2</t>
   </si>
   <si>
     <t xml:space="preserve">B2009</t>
@@ -200,7 +203,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -307,10 +310,10 @@
         <v>564059</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45199</v>
+        <v>45204</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.5</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -328,7 +331,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,22 +339,22 @@
         <v>564062</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45199</v>
+        <v>45224</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>0.583333333333333</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>12</v>
